--- a/com.ixigo/TestData/Prod/Ixigo_TestData.xlsx
+++ b/com.ixigo/TestData/Prod/Ixigo_TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-akkin\eclipse-workspace\com.ixigo\TestData\Prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A8CF1B-EEAC-4562-A7CC-2C4E2651D80E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51F6C3A-F372-44BB-817C-22746AD7E826}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,9 +93,6 @@
     <t>departureTime</t>
   </si>
   <si>
-    <t>00:00 - 06:00:Early Morning,06:00 - 12:00:Morning,12:00 - 18:00:Mid Day,18:00 - 24:00:Night</t>
-  </si>
-  <si>
     <t>stopName</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>FLIGHTS, HOTELS, BUSES, TRAINS, OFFERS, TRAVEL STORIES</t>
+  </si>
+  <si>
+    <t>00:00 - 06:00&amp;Early Morning,06:00 - 12:00&amp;Morning,12:00 - 18:00&amp;Mid Day,18:00 - 24:00&amp;Night</t>
   </si>
 </sst>
 </file>
@@ -130,7 +130,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,6 +149,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -162,13 +168,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -480,47 +487,47 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="N3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -528,7 +535,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -552,7 +559,7 @@
         <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="K4" t="s">
         <v>20</v>
@@ -564,7 +571,7 @@
         <v>5000</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
